--- a/sensitivity_analysis.xlsx
+++ b/sensitivity_analysis.xlsx
@@ -1,21 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/PhD/Artigos/Journals/SAEVs paper/Outputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/GitHub/SAEVs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D89C4D-D542-4040-8140-EF2321A92FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF4C211-F2F0-CF41-A15B-666E9A4AC6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{689E7613-DC92-6645-B1B6-5556FD5BF14F}"/>
+    <workbookView xWindow="-20" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{689E7613-DC92-6645-B1B6-5556FD5BF14F}"/>
   </bookViews>
   <sheets>
     <sheet name="Transportation" sheetId="1" r:id="rId1"/>
     <sheet name="Energy" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Energy!$A$10</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Energy!$A$11</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Energy!$A$12</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Energy!$A$13</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Energy!$B$10:$K$10</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Energy!$B$11:$K$11</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Energy!$B$12:$K$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Energy!$B$13:$K$13</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Energy!$B$9:$K$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Energy!$A$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +111,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>Revenues [CAD$]</t>
   </si>
@@ -111,12 +185,51 @@
   <si>
     <t>S5.2 (0.6 CAD$)</t>
   </si>
+  <si>
+    <t>Sc.</t>
+  </si>
+  <si>
+    <t>Degradation costs [CAD$]</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>S1.1</t>
+  </si>
+  <si>
+    <t>S1.2</t>
+  </si>
+  <si>
+    <t>S2.1</t>
+  </si>
+  <si>
+    <t>S2.2</t>
+  </si>
+  <si>
+    <t>S3.1</t>
+  </si>
+  <si>
+    <t>S3.2</t>
+  </si>
+  <si>
+    <t>S4.1</t>
+  </si>
+  <si>
+    <t>S4.2</t>
+  </si>
+  <si>
+    <t>S5.1</t>
+  </si>
+  <si>
+    <t>S5.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +264,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -178,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -240,11 +372,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,6 +430,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,37 +1420,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.0283333333333333</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9250000000000016</c:v>
+                  <c:v>4.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0983333333333372</c:v>
+                  <c:v>7.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.030000000000002</c:v>
+                  <c:v>6.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0266666666666682</c:v>
+                  <c:v>6.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3683333333333332</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2166666666666677</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4675925925925952</c:v>
+                  <c:v>4.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3541666666666643</c:v>
+                  <c:v>9.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0333333333333359</c:v>
+                  <c:v>6.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,9 +1673,19 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16599662933959269"/>
+          <c:y val="6.6320905252615817E-2"/>
+          <c:w val="0.55652335930528318"/>
+          <c:h val="0.86735804531136473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:radarChart>
-        <c:radarStyle val="marker"/>
+        <c:radarStyle val="filled"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1495,17 +1702,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:solidFill>
-                <a:srgbClr val="AD92EC"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Energy!$B$9:$K$9</c:f>
@@ -1554,31 +1766,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78494273475056731</c:v>
+                  <c:v>0.8249860238745107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2299009599127857</c:v>
+                  <c:v>1.2232299648130487</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0035145988660894</c:v>
+                  <c:v>1.0258837844059325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.000019247529387</c:v>
+                  <c:v>1.0264033674241178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47240366226591152</c:v>
+                  <c:v>0.7759051596566805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3212320266570581</c:v>
+                  <c:v>1.1497484297411951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0343799369912878</c:v>
+                  <c:v>0.85043243776513522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0521661939473448</c:v>
+                  <c:v>1.4233845243184582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2700975002848633</c:v>
+                  <c:v>1.3803117498109112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,17 +1816,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="48000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="4EC0E8"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Energy!$B$9:$K$9</c:f>
@@ -1663,31 +1880,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76248477466504261</c:v>
+                  <c:v>0.80012853470437018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2685749086479903</c:v>
+                  <c:v>1.3438303341902313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0066991473812423</c:v>
+                  <c:v>1.0636246786632391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0694087403598971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17478684633669214</c:v>
+                  <c:v>0.19151670951156813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5280146163215591</c:v>
+                  <c:v>1.6169665809768639</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2423873325213155</c:v>
+                  <c:v>1.2988431876606683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70036540803897684</c:v>
+                  <c:v>0.73393316195372749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.98477466504263089</c:v>
+                  <c:v>1.0456298200514138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1713,17 +1930,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="50500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="A0D667"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Energy!$B$9:$K$9</c:f>
@@ -1772,31 +1994,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81697539397290575</c:v>
+                  <c:v>0.81652390163028465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1774951617362455</c:v>
+                  <c:v>1.1776733904393479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0002764722145425</c:v>
+                  <c:v>1.0011052777010223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99972352778545759</c:v>
+                  <c:v>1.0008289582757668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89051700304119441</c:v>
+                  <c:v>0.88753799392097266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0312413602432955</c:v>
+                  <c:v>1.0309477756286267</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74109913064848043</c:v>
+                  <c:v>0.74049737496546009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5517003041194359</c:v>
+                  <c:v>1.5508427742470297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0008294166436273</c:v>
+                  <c:v>1.0008289582757668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,17 +2044,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+                <a:alpha val="49773"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="12700">
               <a:solidFill>
-                <a:srgbClr val="FFCF55"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Energy!$B$9:$K$9</c:f>
@@ -1881,31 +2108,31 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80389854391733206</c:v>
+                  <c:v>0.7775500910746812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2054955378111789</c:v>
+                  <c:v>1.1682604735883424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0046970408642555</c:v>
+                  <c:v>0.97404371584699456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9990605918271489</c:v>
+                  <c:v>0.97609289617486339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70455612993513617</c:v>
+                  <c:v>0.68306010928961747</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1614607797087835</c:v>
+                  <c:v>1.1267081562436754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.86895255988727105</c:v>
+                  <c:v>0.84175774134790526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3424142790042273</c:v>
+                  <c:v>1.299863387978142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.99694692343823388</c:v>
+                  <c:v>0.96789617486338797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,6 +2161,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1956,14 +2197,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
@@ -1991,9 +2229,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2019,7 +2256,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78540013463182534"/>
+          <c:y val="3.3824128833061719E-2"/>
+          <c:w val="0.19104532366768698"/>
+          <c:h val="0.24181906972579634"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2035,14 +2282,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
@@ -2077,8 +2321,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1050">
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Avenir Book" panose="02000503020000020003" pitchFamily="2" charset="0"/>
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -4350,16 +4597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180662</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39283</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>345293</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>477982</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145700</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>642613</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106417</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4386,16 +4633,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>11517</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>81559</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>834666</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>862202</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>128164</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>505649</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5127,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C01AE7C-410B-B04F-81D7-BD01EA18CFBC}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="135" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5189,41 +5436,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>1298.8680000000002</v>
+        <v>3040.9</v>
       </c>
       <c r="C2" s="5">
-        <v>1019.5369999999999</v>
+        <v>2508.6999999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>1597.4790000000003</v>
+        <v>3719.72</v>
       </c>
       <c r="E2" s="5">
-        <v>1303.433</v>
+        <v>3119.61</v>
       </c>
       <c r="F2" s="5">
-        <v>1298.893</v>
+        <v>3121.19</v>
       </c>
       <c r="G2" s="5">
-        <v>613.59</v>
+        <v>2359.4499999999998</v>
       </c>
       <c r="H2" s="5">
-        <v>1716.106</v>
+        <v>3496.27</v>
       </c>
       <c r="I2" s="5">
-        <v>1343.5230000000001</v>
+        <v>2586.08</v>
       </c>
       <c r="J2" s="5">
-        <v>1366.625</v>
+        <v>4328.37</v>
       </c>
       <c r="K2" s="5">
-        <v>2667.25</v>
+        <v>1968.72</v>
       </c>
       <c r="L2" s="5">
-        <v>1649.6890000000001</v>
+        <v>4197.3900000000003</v>
       </c>
       <c r="M2" s="10">
         <f>LARGE(B2:L2,1)</f>
-        <v>2667.25</v>
+        <v>4328.37</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -5231,41 +5478,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>1642</v>
+        <v>1556</v>
       </c>
       <c r="C3" s="9">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="D3" s="9">
-        <v>2083</v>
+        <v>2091</v>
       </c>
       <c r="E3" s="5">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F3" s="5">
-        <v>1642</v>
+        <v>1664</v>
       </c>
       <c r="G3" s="5">
-        <v>287.00000168484848</v>
+        <v>298</v>
       </c>
       <c r="H3" s="5">
-        <v>2509</v>
+        <v>2516</v>
       </c>
       <c r="I3" s="5">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="J3" s="5">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="K3" s="9">
-        <v>5762</v>
+        <v>5692</v>
       </c>
       <c r="L3" s="5">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="M3" s="10">
         <f>LARGE(B3:L3,1)</f>
-        <v>5762</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -5273,41 +5520,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="12">
-        <v>1808.5</v>
+        <v>7238</v>
       </c>
       <c r="C4" s="9">
-        <v>1477.5</v>
+        <v>5910</v>
       </c>
       <c r="D4" s="9">
-        <v>2129.5</v>
+        <v>8524</v>
       </c>
       <c r="E4" s="5">
-        <v>1809</v>
+        <v>7246</v>
       </c>
       <c r="F4" s="5">
-        <v>1808</v>
+        <v>7244</v>
       </c>
       <c r="G4" s="5">
-        <v>1610.5</v>
+        <v>6424</v>
       </c>
       <c r="H4" s="5">
-        <v>1865</v>
+        <v>7462</v>
       </c>
       <c r="I4" s="5">
-        <v>1340.2777777777769</v>
+        <v>5359.72</v>
       </c>
       <c r="J4" s="5">
-        <v>2806.25</v>
+        <v>11225</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <v>1810</v>
+        <v>7244</v>
       </c>
       <c r="M4" s="10">
         <f>LARGE(B4:L4,1)</f>
-        <v>2806.25</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -5315,41 +5562,41 @@
         <v>2</v>
       </c>
       <c r="B5" s="12">
-        <v>2395.125</v>
+        <v>9882</v>
       </c>
       <c r="C5" s="9">
-        <v>1925.4375</v>
+        <v>7683.75</v>
       </c>
       <c r="D5" s="9">
-        <v>2887.3125</v>
+        <v>11544.75</v>
       </c>
       <c r="E5" s="5">
-        <v>2406.375</v>
+        <v>9625.5</v>
       </c>
       <c r="F5" s="5">
-        <v>2392.875</v>
+        <v>9645.75</v>
       </c>
       <c r="G5" s="5">
-        <v>1687.5000007108929</v>
+        <v>6750</v>
       </c>
       <c r="H5" s="5">
-        <v>2781.84375</v>
+        <v>11134.13</v>
       </c>
       <c r="I5" s="5">
-        <v>2081.25</v>
+        <v>8318.25</v>
       </c>
       <c r="J5" s="5">
-        <v>3215.25</v>
+        <v>12845.25</v>
       </c>
       <c r="K5" s="9">
-        <v>2137.5</v>
+        <v>8772.75</v>
       </c>
       <c r="L5" s="5">
-        <v>2387.8125</v>
+        <v>9564.75</v>
       </c>
       <c r="M5" s="10">
         <f>LARGE(B5:L5,1)</f>
-        <v>3215.25</v>
+        <v>12845.25</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -5357,41 +5604,41 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>6.0283333333333333</v>
+        <v>6.03</v>
       </c>
       <c r="C6" s="9">
-        <v>4.9250000000000016</v>
+        <v>4.93</v>
       </c>
       <c r="D6" s="9">
-        <v>7.0983333333333372</v>
+        <v>7.1</v>
       </c>
       <c r="E6" s="5">
-        <v>6.030000000000002</v>
+        <v>6.04</v>
       </c>
       <c r="F6" s="5">
-        <v>6.0266666666666682</v>
+        <v>6.04</v>
       </c>
       <c r="G6" s="5">
-        <v>5.3683333333333332</v>
+        <v>5.35</v>
       </c>
       <c r="H6" s="5">
-        <v>6.2166666666666677</v>
+        <v>6.22</v>
       </c>
       <c r="I6" s="5">
-        <v>4.4675925925925952</v>
+        <v>4.47</v>
       </c>
       <c r="J6" s="5">
-        <v>9.3541666666666643</v>
+        <v>9.35</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
-        <v>6.0333333333333359</v>
+        <v>6.04</v>
       </c>
       <c r="M6" s="10">
         <f>LARGE(B6:L6,1)</f>
-        <v>9.3541666666666643</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -5435,40 +5682,40 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" ref="C10:L10" si="0">C2/$B$2</f>
-        <v>0.78494273475056731</v>
+        <f t="shared" ref="C10:J10" si="0">C2/$B$2</f>
+        <v>0.8249860238745107</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>1.2299009599127857</v>
+        <v>1.2232299648130487</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>1.0035145988660894</v>
+        <v>1.0258837844059325</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>1.000019247529387</v>
+        <v>1.0264033674241178</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0.47240366226591152</v>
+        <v>0.7759051596566805</v>
       </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>1.3212320266570581</v>
+        <v>1.1497484297411951</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>1.0343799369912878</v>
+        <v>0.85043243776513522</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
-        <v>1.0521661939473448</v>
+        <v>1.4233845243184582</v>
       </c>
       <c r="K10" s="4">
         <f>L2/$B$2</f>
-        <v>1.2700975002848633</v>
+        <v>1.3803117498109112</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -5480,40 +5727,40 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ref="C11:L11" si="1">C3/$B$3</f>
-        <v>0.76248477466504261</v>
+        <f t="shared" ref="C11:J11" si="1">C3/$B$3</f>
+        <v>0.80012853470437018</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="1"/>
-        <v>1.2685749086479903</v>
+        <v>1.3438303341902313</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>1.0066991473812423</v>
+        <v>1.0636246786632391</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.0694087403598971</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
-        <v>0.17478684633669214</v>
+        <v>0.19151670951156813</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="1"/>
-        <v>1.5280146163215591</v>
+        <v>1.6169665809768639</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>1.2423873325213155</v>
+        <v>1.2988431876606683</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>0.70036540803897684</v>
+        <v>0.73393316195372749</v>
       </c>
       <c r="K11" s="4">
         <f>L3/$B$3</f>
-        <v>0.98477466504263089</v>
+        <v>1.0456298200514138</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -5525,40 +5772,40 @@
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:L12" si="2">C4/$B$4</f>
-        <v>0.81697539397290575</v>
+        <f t="shared" ref="C12:J12" si="2">C4/$B$4</f>
+        <v>0.81652390163028465</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="2"/>
-        <v>1.1774951617362455</v>
+        <v>1.1776733904393479</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>1.0002764722145425</v>
+        <v>1.0011052777010223</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="2"/>
-        <v>0.99972352778545759</v>
+        <v>1.0008289582757668</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="2"/>
-        <v>0.89051700304119441</v>
+        <v>0.88753799392097266</v>
       </c>
       <c r="H12" s="4">
         <f t="shared" si="2"/>
-        <v>1.0312413602432955</v>
+        <v>1.0309477756286267</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="2"/>
-        <v>0.74109913064848043</v>
+        <v>0.74049737496546009</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>1.5517003041194359</v>
+        <v>1.5508427742470297</v>
       </c>
       <c r="K12" s="4">
         <f>L4/$B$4</f>
-        <v>1.0008294166436273</v>
+        <v>1.0008289582757668</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -5570,40 +5817,40 @@
         <v>1</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:L13" si="3">C5/$B$5</f>
-        <v>0.80389854391733206</v>
+        <f t="shared" ref="C13:J13" si="3">C5/$B$5</f>
+        <v>0.7775500910746812</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" si="3"/>
-        <v>1.2054955378111789</v>
+        <v>1.1682604735883424</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="3"/>
-        <v>1.0046970408642555</v>
+        <v>0.97404371584699456</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>0.9990605918271489</v>
+        <v>0.97609289617486339</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>0.70455612993513617</v>
+        <v>0.68306010928961747</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="3"/>
-        <v>1.1614607797087835</v>
+        <v>1.1267081562436754</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="3"/>
-        <v>0.86895255988727105</v>
+        <v>0.84175774134790526</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="3"/>
-        <v>1.3424142790042273</v>
+        <v>1.299863387978142</v>
       </c>
       <c r="K13" s="4">
         <f>L5/$B$5</f>
-        <v>0.99694692343823388</v>
+        <v>0.96789617486338797</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -5615,281 +5862,307 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:L14" si="4">C6/$B$6</f>
-        <v>0.81697539397290597</v>
+        <f t="shared" ref="C14:J14" si="4">C6/$B$6</f>
+        <v>0.81757877280265334</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="4"/>
-        <v>1.1774951617362461</v>
+        <v>1.1774461028192371</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="4"/>
-        <v>1.0002764722145427</v>
+        <v>1.001658374792703</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="4"/>
-        <v>0.99972352778545781</v>
+        <v>1.001658374792703</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="4"/>
-        <v>0.8905170030411943</v>
+        <v>0.8872305140961857</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" si="4"/>
-        <v>1.0312413602432957</v>
+        <v>1.0315091210613598</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="4"/>
-        <v>0.74109913064848143</v>
+        <v>0.74129353233830841</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="4"/>
-        <v>1.5517003041194357</v>
+        <v>1.550580431177446</v>
       </c>
       <c r="K14" s="4">
         <f>L6/$B$6</f>
-        <v>1.0008294166436278</v>
+        <v>1.001658374792703</v>
       </c>
     </row>
-    <row r="37" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L37" cm="1">
-        <f t="array" ref="L37:Q48">TRANSPOSE(A1:L6)</f>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" cm="1">
+        <f t="array" ref="K20:K24">TRANSPOSE(M48:Q48)</f>
+        <v>4197.3900000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>7244</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>9564.75</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="12:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M37" t="str">
-        <v>Revenues [CAD$]</v>
-      </c>
-      <c r="N37" t="str">
-        <v>Number of passengers</v>
-      </c>
-      <c r="O37" t="str">
-        <v>Energy provided [kWh]</v>
-      </c>
-      <c r="P37" t="str">
-        <v>Energy charged [kWh]</v>
-      </c>
-      <c r="Q37" t="str">
-        <v>Degradation cots [CAS$]</v>
+      <c r="N37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L38" t="str">
-        <v>Baseline</v>
-      </c>
-      <c r="M38">
-        <v>1298.8680000000002</v>
-      </c>
-      <c r="N38">
-        <v>1642</v>
-      </c>
-      <c r="O38">
-        <v>1808.5</v>
-      </c>
-      <c r="P38">
-        <v>2395.125</v>
-      </c>
-      <c r="Q38">
-        <v>6.0283333333333333</v>
+      <c r="L38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="15">
+        <v>3040.9</v>
+      </c>
+      <c r="N38" s="16">
+        <v>1556</v>
+      </c>
+      <c r="O38" s="16">
+        <v>7238</v>
+      </c>
+      <c r="P38" s="16">
+        <v>9882</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>6.03</v>
       </c>
     </row>
     <row r="39" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L39" t="str">
-        <v>S1.1 (80 vehicles)</v>
-      </c>
-      <c r="M39">
-        <v>1019.5369999999999</v>
-      </c>
-      <c r="N39">
-        <v>1252</v>
-      </c>
-      <c r="O39">
-        <v>1477.5</v>
-      </c>
-      <c r="P39">
-        <v>1925.4375</v>
-      </c>
-      <c r="Q39">
-        <v>4.9250000000000016</v>
+      <c r="L39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="15">
+        <v>2508.6999999999998</v>
+      </c>
+      <c r="N39" s="16">
+        <v>1245</v>
+      </c>
+      <c r="O39" s="16">
+        <v>5910</v>
+      </c>
+      <c r="P39" s="15">
+        <v>7683.75</v>
+      </c>
+      <c r="Q39" s="14">
+        <v>4.93</v>
       </c>
     </row>
     <row r="40" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L40" t="str">
-        <v>S1.2 (120 vehicles)</v>
-      </c>
-      <c r="M40">
-        <v>1597.4790000000003</v>
-      </c>
-      <c r="N40">
-        <v>2083</v>
-      </c>
-      <c r="O40">
-        <v>2129.5</v>
-      </c>
-      <c r="P40">
-        <v>2887.3125</v>
-      </c>
-      <c r="Q40">
-        <v>7.0983333333333372</v>
+      <c r="L40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="15">
+        <v>3719.72</v>
+      </c>
+      <c r="N40" s="16">
+        <v>2091</v>
+      </c>
+      <c r="O40" s="16">
+        <v>8524</v>
+      </c>
+      <c r="P40" s="15">
+        <v>11544.75</v>
+      </c>
+      <c r="Q40" s="14">
+        <v>7.1</v>
       </c>
     </row>
     <row r="41" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L41" t="str">
-        <v>S2.1 (60 kWh)</v>
-      </c>
-      <c r="M41">
-        <v>1303.433</v>
-      </c>
-      <c r="N41">
-        <v>1653</v>
-      </c>
-      <c r="O41">
-        <v>1809</v>
-      </c>
-      <c r="P41">
-        <v>2406.375</v>
-      </c>
-      <c r="Q41">
-        <v>6.030000000000002</v>
+      <c r="L41" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="15">
+        <v>3119.61</v>
+      </c>
+      <c r="N41" s="16">
+        <v>1655</v>
+      </c>
+      <c r="O41" s="16">
+        <v>7246</v>
+      </c>
+      <c r="P41" s="15">
+        <v>9625.5</v>
+      </c>
+      <c r="Q41" s="14">
+        <v>6.04</v>
       </c>
     </row>
     <row r="42" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L42" t="str">
-        <v>S2.2 (100 kWh)</v>
-      </c>
-      <c r="M42">
-        <v>1298.893</v>
-      </c>
-      <c r="N42">
-        <v>1642</v>
-      </c>
-      <c r="O42">
-        <v>1808</v>
-      </c>
-      <c r="P42">
-        <v>2392.875</v>
-      </c>
-      <c r="Q42">
-        <v>6.0266666666666682</v>
+      <c r="L42" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="15">
+        <v>3121.19</v>
+      </c>
+      <c r="N42" s="16">
+        <v>1664</v>
+      </c>
+      <c r="O42" s="16">
+        <v>7244</v>
+      </c>
+      <c r="P42" s="15">
+        <v>9645.75</v>
+      </c>
+      <c r="Q42" s="14">
+        <v>6.04</v>
       </c>
     </row>
     <row r="43" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L43" t="str">
-        <v>S3.1 (5 kW)</v>
-      </c>
-      <c r="M43">
-        <v>613.59</v>
-      </c>
-      <c r="N43">
-        <v>287.00000168484848</v>
-      </c>
-      <c r="O43">
-        <v>1610.5</v>
-      </c>
-      <c r="P43">
-        <v>1687.5000007108929</v>
-      </c>
-      <c r="Q43">
-        <v>5.3683333333333332</v>
+      <c r="L43" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" s="15">
+        <v>2359.4499999999998</v>
+      </c>
+      <c r="N43" s="14">
+        <v>298</v>
+      </c>
+      <c r="O43" s="16">
+        <v>6424</v>
+      </c>
+      <c r="P43" s="16">
+        <v>6750</v>
+      </c>
+      <c r="Q43" s="14">
+        <v>5.35</v>
       </c>
     </row>
     <row r="44" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L44" t="str">
-        <v>S3.2 (15kW)</v>
-      </c>
-      <c r="M44">
-        <v>1716.106</v>
-      </c>
-      <c r="N44">
-        <v>2509</v>
-      </c>
-      <c r="O44">
-        <v>1865</v>
-      </c>
-      <c r="P44">
-        <v>2781.84375</v>
-      </c>
-      <c r="Q44">
-        <v>6.2166666666666677</v>
+      <c r="L44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="15">
+        <v>3496.27</v>
+      </c>
+      <c r="N44" s="16">
+        <v>2516</v>
+      </c>
+      <c r="O44" s="16">
+        <v>7462</v>
+      </c>
+      <c r="P44" s="15">
+        <v>11134.13</v>
+      </c>
+      <c r="Q44" s="14">
+        <v>6.22</v>
       </c>
     </row>
     <row r="45" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L45" t="str">
-        <v>S4.1 (10 kW)</v>
-      </c>
-      <c r="M45">
-        <v>1343.5230000000001</v>
-      </c>
-      <c r="N45">
-        <v>2040</v>
-      </c>
-      <c r="O45">
-        <v>1340.2777777777769</v>
-      </c>
-      <c r="P45">
-        <v>2081.25</v>
-      </c>
-      <c r="Q45">
-        <v>4.4675925925925952</v>
+      <c r="L45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="15">
+        <v>2586.08</v>
+      </c>
+      <c r="N45" s="16">
+        <v>2021</v>
+      </c>
+      <c r="O45" s="15">
+        <v>5359.72</v>
+      </c>
+      <c r="P45" s="15">
+        <v>8318.25</v>
+      </c>
+      <c r="Q45" s="14">
+        <v>4.47</v>
       </c>
     </row>
-    <row r="46" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L46" t="str">
-        <v>S4.2 (15 kW)</v>
-      </c>
-      <c r="M46">
-        <v>1366.625</v>
-      </c>
-      <c r="N46">
-        <v>1150</v>
-      </c>
-      <c r="O46">
-        <v>2806.25</v>
-      </c>
-      <c r="P46">
-        <v>3215.25</v>
-      </c>
-      <c r="Q46">
-        <v>9.3541666666666643</v>
+    <row r="46" spans="12:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M46" s="18">
+        <v>4328.37</v>
+      </c>
+      <c r="N46" s="19">
+        <v>1142</v>
+      </c>
+      <c r="O46" s="19">
+        <v>11225</v>
+      </c>
+      <c r="P46" s="18">
+        <v>12845.25</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>9.35</v>
       </c>
     </row>
-    <row r="47" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L47" t="str">
-        <v>S5.1 (0.2 CAD$)</v>
-      </c>
-      <c r="M47">
-        <v>2667.25</v>
-      </c>
-      <c r="N47">
-        <v>5762</v>
-      </c>
-      <c r="O47">
+    <row r="47" spans="12:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" s="20">
+        <v>1968.72</v>
+      </c>
+      <c r="N47" s="21">
+        <v>5692</v>
+      </c>
+      <c r="O47" s="17">
         <v>0</v>
       </c>
-      <c r="P47">
-        <v>2137.5</v>
-      </c>
-      <c r="Q47">
+      <c r="P47" s="20">
+        <v>8772.75</v>
+      </c>
+      <c r="Q47" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="12:17" x14ac:dyDescent="0.2">
-      <c r="L48" t="str">
-        <v>S5.2 (0.6 CAD$)</v>
-      </c>
-      <c r="M48">
-        <v>1649.6890000000001</v>
-      </c>
-      <c r="N48">
-        <v>1617</v>
-      </c>
-      <c r="O48">
-        <v>1810</v>
-      </c>
-      <c r="P48">
-        <v>2387.8125</v>
-      </c>
-      <c r="Q48">
-        <v>6.0333333333333359</v>
+    <row r="48" spans="12:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="23">
+        <v>4197.3900000000003</v>
+      </c>
+      <c r="N48" s="24">
+        <v>1627</v>
+      </c>
+      <c r="O48" s="24">
+        <v>7244</v>
+      </c>
+      <c r="P48" s="23">
+        <v>9564.75</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>6.04</v>
       </c>
     </row>
   </sheetData>
